--- a/02-intermediate/171-xor.xlsx
+++ b/02-intermediate/171-xor.xlsx
@@ -2,46 +2,171 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recording-PC\Documents\microsoft-excel\02-intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" tabRatio="798" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="XOR" sheetId="81" r:id="rId1"/>
+    <sheet name="XOR (2)" sheetId="82" r:id="rId2"/>
+    <sheet name="XOR (3)" sheetId="83" r:id="rId3"/>
+    <sheet name="XOR (4)" sheetId="84" r:id="rId4"/>
+    <sheet name="XOR (5)" sheetId="85" r:id="rId5"/>
+    <sheet name="XOR (6)" sheetId="86" r:id="rId6"/>
+    <sheet name="XOR (7)" sheetId="87" r:id="rId7"/>
+    <sheet name="XOR (8)" sheetId="88" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
-    <t>Wednesday</t>
+    <t>car1</t>
   </si>
   <si>
-    <t>Sunny</t>
+    <t>car2</t>
   </si>
   <si>
-    <t>December</t>
+    <t>car3</t>
   </si>
   <si>
-    <t>sunny</t>
+    <t>car4</t>
   </si>
   <si>
-    <t>AND</t>
+    <t>car5</t>
   </si>
   <si>
-    <t>OR</t>
+    <t>car6</t>
+  </si>
+  <si>
+    <t>car7</t>
+  </si>
+  <si>
+    <t>car8</t>
+  </si>
+  <si>
+    <t>car9</t>
+  </si>
+  <si>
+    <t>car10</t>
+  </si>
+  <si>
+    <t>car11</t>
+  </si>
+  <si>
+    <t>car12</t>
+  </si>
+  <si>
+    <t>car13</t>
+  </si>
+  <si>
+    <t>car14</t>
+  </si>
+  <si>
+    <t>car15</t>
+  </si>
+  <si>
+    <t>car16</t>
+  </si>
+  <si>
+    <t>car17</t>
+  </si>
+  <si>
+    <t>car18</t>
+  </si>
+  <si>
+    <t>car19</t>
+  </si>
+  <si>
+    <t>car20</t>
+  </si>
+  <si>
+    <t>car21</t>
+  </si>
+  <si>
+    <t>car22</t>
+  </si>
+  <si>
+    <t>car23</t>
+  </si>
+  <si>
+    <t>feature1</t>
+  </si>
+  <si>
+    <t>feature2</t>
+  </si>
+  <si>
+    <t>feature3</t>
+  </si>
+  <si>
+    <t>feature4</t>
+  </si>
+  <si>
+    <t>feature5</t>
+  </si>
+  <si>
+    <t>feature6</t>
+  </si>
+  <si>
+    <t>feature7</t>
+  </si>
+  <si>
+    <t>feature8</t>
+  </si>
+  <si>
+    <t>feature9</t>
+  </si>
+  <si>
+    <t>feature10</t>
+  </si>
+  <si>
+    <t>feature11</t>
+  </si>
+  <si>
+    <t>feature12</t>
+  </si>
+  <si>
+    <t>feature13</t>
+  </si>
+  <si>
+    <t>feature14</t>
+  </si>
+  <si>
+    <t>feature15</t>
+  </si>
+  <si>
+    <t>feature16</t>
+  </si>
+  <si>
+    <t>feature17</t>
+  </si>
+  <si>
+    <t>feature18</t>
+  </si>
+  <si>
+    <t>feature19</t>
+  </si>
+  <si>
+    <t>feature20</t>
+  </si>
+  <si>
+    <t>feature21</t>
+  </si>
+  <si>
+    <t>feature22</t>
+  </si>
+  <si>
+    <t>feature23</t>
+  </si>
+  <si>
+    <t>SUM</t>
   </si>
   <si>
     <t>XOR</t>
@@ -51,10 +176,122 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,8 +304,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,12 +321,179 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -90,33 +501,447 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFA3A3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -425,154 +1250,3681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:L7"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="C1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="5" width="21.796875" customWidth="1"/>
-    <col min="6" max="6" width="29.265625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.796875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9.06640625" style="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <f>_xlfn.XOR(D2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <f>_xlfn.XOR(D3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <f>_xlfn.XOR(D4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <f>_xlfn.XOR(D5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <f>_xlfn.XOR(D6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <f>_xlfn.XOR(D7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <f>_xlfn.XOR(D8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <f>_xlfn.XOR(D9)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D8">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E9">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="C1:F9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <f>_xlfn.XOR(D2,E2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <f>_xlfn.XOR(D3,E3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <f>_xlfn.XOR(D4,E4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <f>_xlfn.XOR(D5,E5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <f>_xlfn.XOR(D6,E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <f>_xlfn.XOR(D7,E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="b">
-        <f>AND(G4,H4,I4)</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="b">
-        <f>OR(G4,H4,I4)</f>
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="b">
-        <f>_xlfn.XOR(G4,H4,I4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="b">
-        <f>AND(G5,H5,I5)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="b">
-        <f>OR(G5,H5,I5)</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="b">
-        <f>_xlfn.XOR(G5,H5,I5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="G6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="b">
-        <f>AND(G6,H6,I6)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="b">
-        <f>OR(G6,H6,I6)</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="b">
-        <f>_xlfn.XOR(G6,H6,I6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="G7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="b">
-        <f>AND(G7,H7,I7)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="b">
-        <f>OR(G7,H7,I7)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="b">
-        <f>_xlfn.XOR(G7,H7,I7)</f>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <f>_xlfn.XOR(D8,E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <f>_xlfn.XOR(D9,E9)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:E8">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F9">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="C1:G9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <f>_xlfn.XOR(D2,E2,F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <f>_xlfn.XOR(D3,E3,F3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <f>_xlfn.XOR(D4,E4,F4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <f>_xlfn.XOR(D5,E5,F5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <f>_xlfn.XOR(D6,E6,F6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <f>_xlfn.XOR(D7,E7,F7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <f>_xlfn.XOR(D8,E8,F8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <f>_xlfn.XOR(D9,E9,F9)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:F8">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G9">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:F9">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="C1:H9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <f>_xlfn.XOR(D2,E2,F2,G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <f>_xlfn.XOR(D3,E3,F3,G3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <f>_xlfn.XOR(D4,E4,F4,G4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <f>_xlfn.XOR(D5,E5,F5,G5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <f>_xlfn.XOR(D6,E6,F6,G6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <f>_xlfn.XOR(D7,E7,F7,G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <f>_xlfn.XOR(D8,E8,F8,G8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <f>_xlfn.XOR(D9,E9,F9,G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:G8">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H9">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:G9">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="C1:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <f>_xlfn.XOR(D2,E2,F2,G2,H2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <f>_xlfn.XOR(D3,E3,F3,G3,H3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f>_xlfn.XOR(D4,E4,F4,G4,H4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f>_xlfn.XOR(D5,E5,F5,G5,H5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <f>_xlfn.XOR(D6,E6,F6,G6,H6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <f>_xlfn.XOR(D7,E7,F7,G7,H7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <f>_xlfn.XOR(D8,E8,F8,G8,H8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <f>_xlfn.XOR(D9,E9,F9,G9,H9)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:H8">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I9">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:H9">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="C1:J9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <f>_xlfn.XOR(D2,E2,F2,G2,H2,I2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <f>_xlfn.XOR(D3,E3,F3,G3,H3,I3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <f>_xlfn.XOR(D4,E4,F4,G4,H4,I4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f>_xlfn.XOR(D5,E5,F5,G5,H5,I5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <f>_xlfn.XOR(D6,E6,F6,G6,H6,I6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <f>_xlfn.XOR(D7,E7,F7,G7,H7,I7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <f>_xlfn.XOR(D8,E8,F8,G8,H8,I8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <f>_xlfn.XOR(D9,E9,F9,G9,H9,I9)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:I8">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J9">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:I9">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="C1:K9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="D9:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <f>_xlfn.XOR(D2,E2,F2,G2,H2,I2,J2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <f>_xlfn.XOR(D3,E3,F3,G3,H3,I3,J3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <f>_xlfn.XOR(D4,E4,F4,G4,H4,I4,J4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f>_xlfn.XOR(D5,E5,F5,G5,H5,I5,J5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <f>_xlfn.XOR(D6,E6,F6,G6,H6,I6,J6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <f>_xlfn.XOR(D7,E7,F7,G7,H7,I7,J7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <f>_xlfn.XOR(D8,E8,F8,G8,H8,I8,J8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <f>_xlfn.XOR(D9,E9,F9,G9,H9,I9,J9)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:J8">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K9">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:J9">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="C1:AC24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17:AC17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="27" max="29" width="8.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1" t="b">
+        <f>_xlfn.XOR(D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2,Z2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <f>SUM(D2:Z2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1" t="str">
+        <f>IF(NOT(ISEVEN(AB2)),"ODD","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1" t="b">
+        <f>_xlfn.XOR(D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3,Q3,R3,S3,T3,U3,V3,W3,X3,Y3,Z3)</f>
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" ref="AB3:AB24" si="0">SUM(D3:Z3)</f>
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1" t="str">
+        <f t="shared" ref="AC3:AC24" si="1">IF(NOT(ISEVEN(AB3)),"ODD","")</f>
+        <v>ODD</v>
+      </c>
+    </row>
+    <row r="4" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1" t="b">
+        <f>_xlfn.XOR(D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4,Q4,R4,S4,T4,U4,V4,W4,X4,Y4,Z4)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1" t="b">
+        <f>_xlfn.XOR(D5,E5,F5,G5,H5,I5,J5,K5,L5,M5,N5,O5,P5,Q5,R5,S5,T5,U5,V5,W5,X5,Y5,Z5)</f>
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AC5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ODD</v>
+      </c>
+    </row>
+    <row r="6" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1" t="b">
+        <f>_xlfn.XOR(D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6,Q6,R6,S6,T6,U6,V6,W6,X6,Y6,Z6)</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AC6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1" t="b">
+        <f>_xlfn.XOR(D7,E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7,P7,Q7,R7,S7,T7,U7,V7,W7,X7,Y7,Z7)</f>
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AC7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ODD</v>
+      </c>
+    </row>
+    <row r="8" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1" t="b">
+        <f>_xlfn.XOR(D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,N8,O8,P8,Q8,R8,S8,T8,U8,V8,W8,X8,Y8,Z8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AC8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1" t="b">
+        <f>_xlfn.XOR(D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9,P9,Q9,R9,S9,T9,U9,V9,W9,X9,Y9,Z9)</f>
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AC9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ODD</v>
+      </c>
+    </row>
+    <row r="10" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1" t="b">
+        <f>_xlfn.XOR(D10,E10,F10,G10,H10,I10,J10,K10,L10,M10,N10,O10,P10,Q10,R10,S10,T10,U10,V10,W10,X10,Y10,Z10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AC10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1" t="b">
+        <f>_xlfn.XOR(D11,E11,F11,G11,H11,I11,J11,K11,L11,M11,N11,O11,P11,Q11,R11,S11,T11,U11,V11,W11,X11,Y11,Z11)</f>
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AC11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ODD</v>
+      </c>
+    </row>
+    <row r="12" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1" t="b">
+        <f>_xlfn.XOR(D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12,Q12,R12,S12,T12,U12,V12,W12,X12,Y12,Z12)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AC12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1" t="b">
+        <f>_xlfn.XOR(D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13,Q13,R13,S13,T13,U13,V13,W13,X13,Y13,Z13)</f>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AC13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ODD</v>
+      </c>
+    </row>
+    <row r="14" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1" t="b">
+        <f>_xlfn.XOR(D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,N14,O14,P14,Q14,R14,S14,T14,U14,V14,W14,X14,Y14,Z14)</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AC14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1" t="b">
+        <f>_xlfn.XOR(D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15,P15,Q15,R15,S15,T15,U15,V15,W15,X15,Y15,Z15)</f>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AC15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ODD</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1" t="b">
+        <f>_xlfn.XOR(D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,N16,O16,P16,Q16,R16,S16,T16,U16,V16,W16,X16,Y16,Z16)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AC16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1" t="b">
+        <f>_xlfn.XOR(D17,E17,F17,G17,H17,I17,J17,K17,L17,M17,N17,O17,P17,Q17,R17,S17,T17,U17,V17,W17,X17,Y17,Z17)</f>
+        <v>1</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AC17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ODD</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1" t="b">
+        <f>_xlfn.XOR(D18,E18,F18,G18,H18,I18,J18,K18,L18,M18,N18,O18,P18,Q18,R18,S18,T18,U18,V18,W18,X18,Y18,Z18)</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AC18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1" t="b">
+        <f>_xlfn.XOR(D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19,P19,Q19,R19,S19,T19,U19,V19,W19,X19,Y19,Z19)</f>
+        <v>1</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AC19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ODD</v>
+      </c>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1" t="b">
+        <f>_xlfn.XOR(D20,E20,F20,G20,H20,I20,J20,K20,L20,M20,N20,O20,P20,Q20,R20,S20,T20,U20,V20,W20,X20,Y20,Z20)</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AC20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1" t="b">
+        <f>_xlfn.XOR(D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21,Q21,R21,S21,T21,U21,V21,W21,X21,Y21,Z21)</f>
+        <v>1</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AC21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ODD</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1" t="b">
+        <f>_xlfn.XOR(D22,E22,F22,G22,H22,I22,J22,K22,L22,M22,N22,O22,P22,Q22,R22,S22,T22,U22,V22,W22,X22,Y22,Z22)</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AC22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1" t="b">
+        <f>_xlfn.XOR(D23,E23,F23,G23,H23,I23,J23,K23,L23,M23,N23,O23,P23,Q23,R23,S23,T23,U23,V23,W23,X23,Y23,Z23)</f>
+        <v>1</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AC23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ODD</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1" t="b">
+        <f>_xlfn.XOR(D24,E24,F24,G24,H24,I24,J24,K24,L24,M24,N24,O24,P24,Q24,R24,S24,T24,U24,V24,W24,X24,Y24,Z24)</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AC24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:J8">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:J9">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:J10">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:L10">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:J24">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:Q24 R16 S17 T18 K11:M11 K12:N12 K13:O13 K14:P14">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18 S19:T19 S20:U20 S21:V21 S22:W22 S23:X23 R17:R23 R24:Y24">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:Z9">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16 T16:T17 U16:U18 R15:U15 Q14:U14 V14:V19 W14:W20 P13:W13 O12:W12 X12:Y21 N11:Y11 M10:Y10 Z10:Z23 Y22">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AA24">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC24">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"ODD"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
